--- a/docs/CareConnect-BloodPressure-Observation-1.xlsx
+++ b/docs/CareConnect-BloodPressure-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="667">
   <si>
     <t>Path</t>
   </si>
@@ -961,6 +961,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -7938,10 +7944,10 @@
         <v>305</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8016,7 +8022,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -8069,7 +8075,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>45</v>
@@ -8303,7 +8309,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>45</v>
@@ -8420,7 +8426,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>45</v>
@@ -8616,7 +8622,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8735,7 +8741,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8758,19 +8764,19 @@
         <v>57</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8819,7 +8825,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8834,19 +8840,19 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8854,11 +8860,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8877,19 +8883,19 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8938,7 +8944,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8953,19 +8959,19 @@
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8973,11 +8979,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8996,19 +9002,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9057,7 +9063,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -9072,19 +9078,19 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -9092,7 +9098,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9115,16 +9121,16 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9174,7 +9180,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9195,13 +9201,13 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -9209,7 +9215,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9232,17 +9238,17 @@
         <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9291,7 +9297,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9306,19 +9312,19 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -9326,7 +9332,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9349,19 +9355,19 @@
         <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -9398,17 +9404,17 @@
         <v>45</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -9417,36 +9423,36 @@
         <v>56</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9468,19 +9474,19 @@
         <v>57</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -9529,7 +9535,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9538,33 +9544,33 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9679,7 +9685,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9796,7 +9802,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9819,19 +9825,19 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -9880,7 +9886,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9901,10 +9907,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9915,7 +9921,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9941,22 +9947,22 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>45</v>
@@ -9980,10 +9986,10 @@
         <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -10001,7 +10007,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -10022,10 +10028,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -10036,7 +10042,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10062,14 +10068,14 @@
         <v>120</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10118,7 +10124,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10139,10 +10145,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10153,7 +10159,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10179,21 +10185,21 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -10235,7 +10241,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10244,7 +10250,7 @@
         <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -10256,10 +10262,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10270,7 +10276,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10296,16 +10302,16 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10333,10 +10339,10 @@
         <v>136</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -10354,7 +10360,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10375,10 +10381,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10389,7 +10395,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10415,16 +10421,16 @@
         <v>142</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10452,10 +10458,10 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -10473,7 +10479,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10482,13 +10488,13 @@
         <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>45</v>
@@ -10497,7 +10503,7 @@
         <v>99</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10508,7 +10514,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10623,7 +10629,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10740,7 +10746,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10859,7 +10865,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10974,7 +10980,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11091,7 +11097,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11210,7 +11216,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11327,7 +11333,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11444,7 +11450,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11561,7 +11567,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11680,7 +11686,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11799,11 +11805,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11825,14 +11831,14 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11860,10 +11866,10 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11881,7 +11887,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11899,24 +11905,24 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11942,14 +11948,14 @@
         <v>120</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11998,7 +12004,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -12013,16 +12019,16 @@
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -12033,7 +12039,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12059,13 +12065,13 @@
         <v>142</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -12091,13 +12097,13 @@
         <v>45</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>45</v>
@@ -12115,7 +12121,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12133,24 +12139,24 @@
         <v>45</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12265,7 +12271,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12382,7 +12388,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12454,7 +12460,7 @@
         <v>45</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AB87" s="2"/>
       <c r="AC87" t="s" s="2">
@@ -12499,7 +12505,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>301</v>
@@ -12561,13 +12567,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12620,7 +12626,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12735,7 +12741,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12850,7 +12856,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>304</v>
@@ -12878,10 +12884,10 @@
         <v>305</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12956,7 +12962,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12967,7 +12973,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13009,7 +13015,7 @@
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>45</v>
@@ -13086,7 +13092,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13203,7 +13209,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13320,7 +13326,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13437,7 +13443,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13556,7 +13562,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13675,7 +13681,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13701,16 +13707,16 @@
         <v>142</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13735,13 +13741,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -13759,7 +13765,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13780,10 +13786,10 @@
         <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -13794,7 +13800,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13909,7 +13915,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14026,7 +14032,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14098,7 +14104,7 @@
         <v>45</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
@@ -14143,7 +14149,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>301</v>
@@ -14205,13 +14211,13 @@
         <v>45</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>45</v>
@@ -14264,7 +14270,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14379,7 +14385,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14494,7 +14500,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>304</v>
@@ -14522,10 +14528,10 @@
         <v>305</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14600,7 +14606,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14611,7 +14617,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14653,7 +14659,7 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>45</v>
@@ -14730,7 +14736,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14847,7 +14853,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14964,7 +14970,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15081,7 +15087,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15200,7 +15206,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15319,7 +15325,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15342,16 +15348,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15401,7 +15407,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15419,24 +15425,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15459,16 +15465,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15518,7 +15524,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15536,24 +15542,24 @@
         <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15576,19 +15582,19 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>45</v>
@@ -15637,7 +15643,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15649,7 +15655,7 @@
         <v>45</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>45</v>
@@ -15658,10 +15664,10 @@
         <v>45</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15672,7 +15678,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15787,7 +15793,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15904,11 +15910,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15933,7 +15939,7 @@
         <v>108</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>105</v>
@@ -15986,7 +15992,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -16021,7 +16027,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16044,13 +16050,13 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -16101,7 +16107,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16110,7 +16116,7 @@
         <v>56</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>45</v>
@@ -16122,10 +16128,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -16136,7 +16142,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16159,13 +16165,13 @@
         <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16216,31 +16222,31 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL119" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AF119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="AM119" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16251,7 +16257,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16277,16 +16283,16 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16314,10 +16320,10 @@
         <v>79</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16335,7 +16341,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16353,13 +16359,13 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16370,7 +16376,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16396,16 +16402,16 @@
         <v>142</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16430,13 +16436,13 @@
         <v>45</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>45</v>
@@ -16454,7 +16460,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16472,13 +16478,13 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16489,7 +16495,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16512,17 +16518,17 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16571,7 +16577,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16595,7 +16601,7 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16606,7 +16612,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16632,10 +16638,10 @@
         <v>120</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16686,7 +16692,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16707,10 +16713,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16721,7 +16727,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16744,19 +16750,19 @@
         <v>57</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
@@ -16805,7 +16811,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -16817,7 +16823,7 @@
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -16826,10 +16832,10 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
@@ -16840,7 +16846,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16955,7 +16961,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17072,11 +17078,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17101,7 +17107,7 @@
         <v>108</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>105</v>
@@ -17154,7 +17160,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17189,7 +17195,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17215,23 +17221,23 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="R128" t="s" s="2">
         <v>45</v>
@@ -17252,10 +17258,10 @@
         <v>136</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>45</v>
@@ -17273,7 +17279,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17297,7 +17303,7 @@
         <v>99</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17308,7 +17314,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17331,13 +17337,13 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -17388,7 +17394,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>56</v>
@@ -17412,7 +17418,7 @@
         <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17423,7 +17429,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17446,19 +17452,19 @@
         <v>57</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -17505,7 +17511,7 @@
         <v>129</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17517,7 +17523,7 @@
         <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>45</v>
@@ -17526,10 +17532,10 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
@@ -17540,7 +17546,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17655,7 +17661,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17772,11 +17778,11 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -17801,7 +17807,7 @@
         <v>108</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M133" t="s" s="2">
         <v>105</v>
@@ -17854,7 +17860,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17889,7 +17895,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17915,10 +17921,10 @@
         <v>142</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
@@ -17947,13 +17953,13 @@
         <v>45</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>45</v>
@@ -17971,7 +17977,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>56</v>
@@ -17989,7 +17995,7 @@
         <v>45</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>282</v>
@@ -18006,7 +18012,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18029,19 +18035,19 @@
         <v>57</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18090,7 +18096,7 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
@@ -18108,24 +18114,24 @@
         <v>45</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18151,16 +18157,16 @@
         <v>142</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>45</v>
@@ -18188,10 +18194,10 @@
         <v>79</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>45</v>
@@ -18209,7 +18215,7 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -18218,7 +18224,7 @@
         <v>56</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>45</v>
@@ -18233,7 +18239,7 @@
         <v>99</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -18244,11 +18250,11 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18270,16 +18276,16 @@
         <v>142</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18307,10 +18313,10 @@
         <v>79</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>45</v>
@@ -18328,7 +18334,7 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -18346,24 +18352,24 @@
         <v>45</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18389,16 +18395,16 @@
         <v>45</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
@@ -18447,7 +18453,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -18468,10 +18474,10 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
@@ -18482,10 +18488,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>45</v>
@@ -18507,19 +18513,19 @@
         <v>57</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
@@ -18568,7 +18574,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -18580,7 +18586,7 @@
         <v>45</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>45</v>
@@ -18589,10 +18595,10 @@
         <v>45</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
@@ -18603,7 +18609,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18718,7 +18724,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18835,11 +18841,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18864,7 +18870,7 @@
         <v>108</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>105</v>
@@ -18917,7 +18923,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -18952,7 +18958,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18978,10 +18984,10 @@
         <v>142</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
@@ -19016,7 +19022,7 @@
         <v>278</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>45</v>
@@ -19034,7 +19040,7 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>56</v>
@@ -19052,7 +19058,7 @@
         <v>45</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>282</v>
@@ -19069,7 +19075,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19184,7 +19190,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19301,7 +19307,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19418,7 +19424,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>290</v>
@@ -19446,7 +19452,7 @@
         <v>214</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L147" t="s" s="2">
         <v>216</v>
@@ -19486,7 +19492,7 @@
         <v>291</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>45</v>
@@ -19539,7 +19545,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19654,7 +19660,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19771,7 +19777,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19890,7 +19896,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20007,7 +20013,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20047,7 +20053,7 @@
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="R152" t="s" s="2">
         <v>45</v>
@@ -20124,7 +20130,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20241,7 +20247,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20360,7 +20366,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>301</v>
@@ -20388,7 +20394,7 @@
         <v>214</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L155" t="s" s="2">
         <v>216</v>
@@ -20481,7 +20487,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20596,7 +20602,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20711,7 +20717,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>304</v>
@@ -20739,10 +20745,10 @@
         <v>305</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -20817,7 +20823,7 @@
         <v>45</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>45</v>
@@ -20828,7 +20834,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20870,7 +20876,7 @@
       </c>
       <c r="P159" s="2"/>
       <c r="Q159" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R159" t="s" s="2">
         <v>45</v>
@@ -20947,7 +20953,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21064,7 +21070,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21104,7 +21110,7 @@
       </c>
       <c r="P161" s="2"/>
       <c r="Q161" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="R161" t="s" s="2">
         <v>45</v>
@@ -21181,7 +21187,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21221,7 +21227,7 @@
       </c>
       <c r="P162" s="2"/>
       <c r="Q162" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="R162" t="s" s="2">
         <v>45</v>
@@ -21298,7 +21304,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21417,7 +21423,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21536,10 +21542,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>45</v>
@@ -21561,19 +21567,19 @@
         <v>57</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>45</v>
@@ -21601,10 +21607,10 @@
         <v>136</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Z165" t="s" s="2">
         <v>45</v>
@@ -21622,7 +21628,7 @@
         <v>45</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>43</v>
@@ -21640,24 +21646,24 @@
         <v>45</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21772,7 +21778,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21889,7 +21895,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21912,19 +21918,19 @@
         <v>57</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>45</v>
@@ -21973,7 +21979,7 @@
         <v>45</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>43</v>
@@ -21994,10 +22000,10 @@
         <v>45</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>45</v>
@@ -22008,7 +22014,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22034,22 +22040,22 @@
         <v>75</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P169" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q169" t="s" s="2">
         <v>45</v>
@@ -22073,10 +22079,10 @@
         <v>136</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>45</v>
@@ -22094,7 +22100,7 @@
         <v>45</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>43</v>
@@ -22115,10 +22121,10 @@
         <v>45</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>45</v>
@@ -22129,7 +22135,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22155,14 +22161,14 @@
         <v>120</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>45</v>
@@ -22211,7 +22217,7 @@
         <v>45</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>43</v>
@@ -22232,10 +22238,10 @@
         <v>45</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>45</v>
@@ -22246,7 +22252,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22272,21 +22278,21 @@
         <v>69</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>45</v>
@@ -22328,7 +22334,7 @@
         <v>45</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>43</v>
@@ -22337,7 +22343,7 @@
         <v>56</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>45</v>
@@ -22349,10 +22355,10 @@
         <v>45</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>45</v>
@@ -22363,7 +22369,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22389,23 +22395,23 @@
         <v>75</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P172" s="2"/>
       <c r="Q172" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="R172" t="s" s="2">
         <v>45</v>
@@ -22447,7 +22453,7 @@
         <v>45</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>43</v>
@@ -22468,10 +22474,10 @@
         <v>45</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>45</v>
@@ -22482,7 +22488,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22508,16 +22514,16 @@
         <v>142</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>45</v>
@@ -22545,10 +22551,10 @@
         <v>79</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>45</v>
@@ -22566,7 +22572,7 @@
         <v>45</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>43</v>
@@ -22575,7 +22581,7 @@
         <v>56</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>45</v>
@@ -22590,7 +22596,7 @@
         <v>99</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>45</v>
@@ -22601,11 +22607,11 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -22627,16 +22633,16 @@
         <v>142</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>45</v>
@@ -22664,10 +22670,10 @@
         <v>79</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>45</v>
@@ -22685,7 +22691,7 @@
         <v>45</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>43</v>
@@ -22703,24 +22709,24 @@
         <v>45</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22746,16 +22752,16 @@
         <v>45</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>45</v>
@@ -22804,7 +22810,7 @@
         <v>45</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>43</v>
@@ -22825,10 +22831,10 @@
         <v>45</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN175" t="s" s="2">
         <v>45</v>
@@ -22839,10 +22845,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>45</v>
@@ -22864,19 +22870,19 @@
         <v>57</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>45</v>
@@ -22925,7 +22931,7 @@
         <v>45</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>43</v>
@@ -22937,7 +22943,7 @@
         <v>45</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>45</v>
@@ -22946,10 +22952,10 @@
         <v>45</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>45</v>
@@ -22960,7 +22966,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23075,7 +23081,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23192,11 +23198,11 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23221,7 +23227,7 @@
         <v>108</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M179" t="s" s="2">
         <v>105</v>
@@ -23274,7 +23280,7 @@
         <v>45</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>43</v>
@@ -23309,7 +23315,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23335,10 +23341,10 @@
         <v>142</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
@@ -23373,7 +23379,7 @@
         <v>291</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>45</v>
@@ -23391,7 +23397,7 @@
         <v>45</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>56</v>
@@ -23409,7 +23415,7 @@
         <v>45</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>282</v>
@@ -23426,7 +23432,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23541,7 +23547,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23658,7 +23664,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23775,7 +23781,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>290</v>
@@ -23803,7 +23809,7 @@
         <v>214</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L184" t="s" s="2">
         <v>216</v>
@@ -23843,7 +23849,7 @@
         <v>291</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>45</v>
@@ -23896,7 +23902,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24011,7 +24017,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24128,7 +24134,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24247,7 +24253,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24364,7 +24370,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24404,7 +24410,7 @@
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="R189" t="s" s="2">
         <v>45</v>
@@ -24481,7 +24487,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24598,7 +24604,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24717,7 +24723,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>301</v>
@@ -24745,7 +24751,7 @@
         <v>214</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L192" t="s" s="2">
         <v>216</v>
@@ -24838,7 +24844,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24953,7 +24959,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25068,7 +25074,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>304</v>
@@ -25096,10 +25102,10 @@
         <v>305</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -25174,7 +25180,7 @@
         <v>45</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>45</v>
@@ -25185,7 +25191,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25227,7 +25233,7 @@
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R196" t="s" s="2">
         <v>45</v>
@@ -25304,7 +25310,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25421,7 +25427,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25461,7 +25467,7 @@
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="R198" t="s" s="2">
         <v>45</v>
@@ -25538,7 +25544,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25578,7 +25584,7 @@
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="R199" t="s" s="2">
         <v>45</v>
@@ -25655,7 +25661,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25774,7 +25780,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25893,10 +25899,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C202" t="s" s="2">
         <v>45</v>
@@ -25918,19 +25924,19 @@
         <v>57</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>45</v>
@@ -25958,10 +25964,10 @@
         <v>136</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>45</v>
@@ -25979,7 +25985,7 @@
         <v>45</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>43</v>
@@ -25997,24 +26003,24 @@
         <v>45</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO202" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26129,7 +26135,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26246,7 +26252,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26269,19 +26275,19 @@
         <v>57</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>45</v>
@@ -26330,7 +26336,7 @@
         <v>45</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>43</v>
@@ -26351,10 +26357,10 @@
         <v>45</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>45</v>
@@ -26365,7 +26371,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26391,22 +26397,22 @@
         <v>75</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P206" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q206" t="s" s="2">
         <v>45</v>
@@ -26430,10 +26436,10 @@
         <v>136</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>45</v>
@@ -26451,7 +26457,7 @@
         <v>45</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>43</v>
@@ -26472,10 +26478,10 @@
         <v>45</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>45</v>
@@ -26486,7 +26492,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26512,14 +26518,14 @@
         <v>120</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>45</v>
@@ -26568,7 +26574,7 @@
         <v>45</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>43</v>
@@ -26589,10 +26595,10 @@
         <v>45</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>45</v>
@@ -26603,7 +26609,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26629,21 +26635,21 @@
         <v>69</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M208" s="2"/>
       <c r="N208" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R208" t="s" s="2">
         <v>45</v>
@@ -26685,7 +26691,7 @@
         <v>45</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>43</v>
@@ -26694,7 +26700,7 @@
         <v>56</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>45</v>
@@ -26706,10 +26712,10 @@
         <v>45</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>45</v>
@@ -26720,7 +26726,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26746,23 +26752,23 @@
         <v>75</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P209" s="2"/>
       <c r="Q209" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="R209" t="s" s="2">
         <v>45</v>
@@ -26804,7 +26810,7 @@
         <v>45</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>43</v>
@@ -26825,10 +26831,10 @@
         <v>45</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>45</v>
@@ -26839,7 +26845,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26865,16 +26871,16 @@
         <v>142</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>45</v>
@@ -26902,10 +26908,10 @@
         <v>79</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>45</v>
@@ -26923,7 +26929,7 @@
         <v>45</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>43</v>
@@ -26932,7 +26938,7 @@
         <v>56</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>45</v>
@@ -26947,7 +26953,7 @@
         <v>99</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>45</v>
@@ -26958,11 +26964,11 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26984,16 +26990,16 @@
         <v>142</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>45</v>
@@ -27021,10 +27027,10 @@
         <v>79</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>45</v>
@@ -27042,7 +27048,7 @@
         <v>45</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>43</v>
@@ -27060,24 +27066,24 @@
         <v>45</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27103,16 +27109,16 @@
         <v>45</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>45</v>
@@ -27161,7 +27167,7 @@
         <v>45</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>43</v>
@@ -27182,10 +27188,10 @@
         <v>45</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>45</v>

--- a/docs/CareConnect-BloodPressure-Observation-1.xlsx
+++ b/docs/CareConnect-BloodPressure-Observation-1.xlsx
@@ -2243,13 +2243,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2260,22 +2260,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-BloodPressure-Observation-1.xlsx
+++ b/docs/CareConnect-BloodPressure-Observation-1.xlsx
@@ -2243,13 +2243,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2260,22 +2260,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-BloodPressure-Observation-1.xlsx
+++ b/docs/CareConnect-BloodPressure-Observation-1.xlsx
@@ -2234,13 +2234,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2251,22 +2251,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-BloodPressure-Observation-1.xlsx
+++ b/docs/CareConnect-BloodPressure-Observation-1.xlsx
@@ -2234,13 +2234,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2251,22 +2251,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>
